--- a/bin/template/javascript/front-end-estimation.xlsx
+++ b/bin/template/javascript/front-end-estimation.xlsx
@@ -1,19 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BR388313/workspace/play/bsac-linux-cfg/bin/template/javascript/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A8D569-7E88-434C-9C4D-114325F5E9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="164" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21440" tabRatio="164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="types" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="screen" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="screen_2" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Final" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="types" sheetId="1" r:id="rId1"/>
+    <sheet name="screen" sheetId="2" r:id="rId2"/>
+    <sheet name="screen_2" sheetId="3" r:id="rId3"/>
+    <sheet name="Final" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -401,35 +419,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="7">
@@ -471,7 +472,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -479,101 +480,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -632,88 +569,396 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.6510638297872"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.4382978723404"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="1" width="9.57021276595745"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.31914893617021"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="16.42578125"/>
+    <col min="3" max="6" width="9.5703125"/>
+    <col min="7" max="1025" width="7.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="2" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
         <v>99</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">2*C6</f>
+      <c r="D6">
+        <f>2*C6</f>
         <v>198</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <f aca="false">2*D6</f>
+      <c r="E6">
+        <f>2*D6</f>
         <v>396</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -726,118 +971,118 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>98</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <f aca="false">2*C22</f>
+      <c r="D22">
+        <f>2*C22</f>
         <v>196</v>
       </c>
-      <c r="E22" s="1" t="n">
-        <f aca="false">2*D22</f>
+      <c r="E22">
+        <f>2*D22</f>
         <v>392</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -850,104 +1095,104 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="2">
         <v>97</v>
       </c>
-      <c r="D40" s="1" t="n">
-        <f aca="false">1.5*C40</f>
+      <c r="D40">
+        <f>1.5*C40</f>
         <v>145.5</v>
       </c>
-      <c r="E40" s="1" t="n">
-        <f aca="false">2*C40</f>
+      <c r="E40">
+        <f>2*C40</f>
         <v>194</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -960,72 +1205,72 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="2">
         <v>90</v>
       </c>
-      <c r="D51" s="1" t="n">
-        <f aca="false">1.5*C51</f>
+      <c r="D51">
+        <f>1.5*C51</f>
         <v>135</v>
       </c>
-      <c r="E51" s="1" t="n">
-        <f aca="false">2*C51</f>
+      <c r="E51">
+        <f>2*C51</f>
         <v>180</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -1038,99 +1283,99 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="1" t="n">
-        <f aca="false">3/3</f>
+      <c r="C53">
+        <f>3/3</f>
         <v>1</v>
       </c>
-      <c r="D53" s="1" t="n">
-        <f aca="false">3/2</f>
+      <c r="D53">
+        <f>3/2</f>
         <v>1.5</v>
       </c>
-      <c r="E53" s="1" t="n">
-        <f aca="false">3/1</f>
+      <c r="E53">
+        <f>3/1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="2">
         <v>96</v>
       </c>
-      <c r="D65" s="1" t="n">
-        <f aca="false">1.5*C65</f>
+      <c r="D65">
+        <f>1.5*C65</f>
         <v>144</v>
       </c>
-      <c r="E65" s="1" t="n">
-        <f aca="false">2*C65</f>
+      <c r="E65">
+        <f>2*C65</f>
         <v>192</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>47</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -1143,104 +1388,104 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="1" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="1" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="1" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="1" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="1" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="1" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="1" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="1" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="1" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="1" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="1" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="1" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="1" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="1" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>62</v>
       </c>
-      <c r="C83" s="2" t="n">
+      <c r="C83" s="2">
         <v>95</v>
       </c>
-      <c r="D83" s="1" t="n">
-        <f aca="false">1.5*C83</f>
+      <c r="D83">
+        <f>1.5*C83</f>
         <v>142.5</v>
       </c>
-      <c r="E83" s="1" t="n">
-        <f aca="false">2*C83</f>
+      <c r="E83">
+        <f>2*C83</f>
         <v>190</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="1" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>38</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -1253,49 +1498,49 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="1" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="1" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="1" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="1" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="1" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>68</v>
       </c>
-      <c r="C90" s="2" t="n">
+      <c r="C90" s="2">
         <v>94</v>
       </c>
-      <c r="D90" s="1" t="n">
-        <f aca="false">3*C90</f>
+      <c r="D90">
+        <f>3*C90</f>
         <v>282</v>
       </c>
-      <c r="E90" s="1" t="n">
-        <f aca="false">3*D90</f>
+      <c r="E90">
+        <f>3*D90</f>
         <v>846</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="1" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>69</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -1308,800 +1553,778 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="1" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="1" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="1" t="s">
+    <row r="94" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="1" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="1" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="1" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="45.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="1:6" ht="45.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="101" customFormat="false" ht="32.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5" t="s">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="101" spans="1:6" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-    </row>
-    <row r="102" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="s">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-    </row>
-    <row r="103" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="s">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-    </row>
-    <row r="104" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="s">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-    </row>
-    <row r="105" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="s">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-    </row>
-    <row r="107" customFormat="false" ht="44.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="s">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="107" spans="1:6" ht="44.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A107:F107"/>
     <mergeCell ref="A99:F99"/>
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A103:F103"/>
     <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A107:F107"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Internal to Wipro</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="G2" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="1" width="9.57021276595745"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="7.31914893617021"/>
+    <col min="1" max="7" width="9.5703125"/>
+    <col min="8" max="1025" width="7.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="str">
-        <f aca="false">types!A1</f>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>types!A1</f>
         <v>Front End Estimation</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="6" t="n">
-        <f aca="false">G2+G7</f>
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="14">
+        <f>G2+G7</f>
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>83</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <f aca="false">types!G1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="12">
+        <f>types!G1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>85</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <f aca="false">types!G2+1</f>
+      <c r="G3">
+        <f>types!G2+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="n">
-        <f aca="false">SUM(F8:F17)-F15</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <f aca="false">F7*(1+F18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="5">
+        <f>SUM(F8:F17)-F15</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <f>F7*(1+F18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="1" t="n">
-        <f aca="false">C8*types!$C$65+D8*types!$D$65+E8*types!$E$65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8">
+        <f>C8*types!$C$65+D8*types!$D$65+E8*types!$E$65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="1" t="n">
-        <f aca="false">C9*types!$C$6+D9*types!$D$6+E9*types!$E$6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9">
+        <f>C9*types!$C$6+D9*types!$D$6+E9*types!$E$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="1" t="n">
-        <f aca="false">C10*types!$C$83+D10*types!$D$83+E10*types!$E$83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10">
+        <f>C10*types!$C$83+D10*types!$D$83+E10*types!$E$83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <f aca="false">C11*types!$C$90+D11*types!$D$90+E11*types!$E$90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="F11">
+        <f>C11*types!$C$90+D11*types!$D$90+E11*types!$E$90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <f aca="false">C12*types!$C$22+D12*types!$D$22+E12*types!$E$22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="F12">
+        <f>C12*types!$C$22+D12*types!$D$22+E12*types!$E$22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <f aca="false">C13*types!$C$40+D13*types!$D$40+E13*types!$E$40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="F13">
+        <f>C13*types!$C$40+D13*types!$D$40+E13*types!$E$40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="1" t="n">
-        <f aca="false">(C14*types!$C$51+D14*types!$D$51+E14*types!$E$51)*IF(F15,F15,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14">
+        <f>(C14*types!$C$51+D14*types!$D$51+E14*types!$E$51)*IF(F15,F15,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9" t="n">
-        <f aca="false">MIN(1,C15*types!$C$53+D15*types!$D$53+E15*types!$E$53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7">
+        <f>MIN(1,C15*types!$C$53+D15*types!$D$53+E15*types!$E$53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="1" t="n">
-        <f aca="false">SUM(C16:E17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="F16">
+        <f>SUM(C16:E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11" t="n">
-        <f aca="false">SUM(C18:E18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9">
+        <f>SUM(C18:E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Internal to Wipro</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="1" width="9.57021276595745"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="7.31914893617021"/>
+    <col min="1" max="7" width="9.5703125"/>
+    <col min="8" max="1025" width="7.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="str">
-        <f aca="false">screen!A1</f>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>screen!A1</f>
         <v>Front End Estimation</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="6" t="n">
-        <f aca="false">G2+G7</f>
-        <v>90</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="14">
+        <f>G2+G7</f>
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>99</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <f aca="false">screen!G1</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="12">
+        <f>screen!G1</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>85</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <f aca="false">screen!G3+1</f>
+      <c r="G3">
+        <f>screen!G3+1</f>
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="n">
-        <f aca="false">SUM(F8:F17)-F15</f>
+      <c r="F7" s="5">
+        <f>SUM(F8:F17)-F15</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <f>F7*(1+F18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <f aca="false">F7*(1+F18)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="1" t="n">
-        <f aca="false">C8*types!$C$65+D8*types!$D$65+E8*types!$E$65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8">
+        <f>C8*types!$C$65+D8*types!$D$65+E8*types!$E$65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="1" t="n">
-        <f aca="false">C9*types!$C$6+D9*types!$D$6+E9*types!$E$6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9">
+        <f>C9*types!$C$6+D9*types!$D$6+E9*types!$E$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="1" t="n">
-        <f aca="false">C10*types!$C$83+D10*types!$D$83+E10*types!$E$83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10">
+        <f>C10*types!$C$83+D10*types!$D$83+E10*types!$E$83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <f aca="false">C11*types!$C$90+D11*types!$D$90+E11*types!$E$90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="F11">
+        <f>C11*types!$C$90+D11*types!$D$90+E11*types!$E$90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <f aca="false">C12*types!$C$22+D12*types!$D$22+E12*types!$E$22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="F12">
+        <f>C12*types!$C$22+D12*types!$D$22+E12*types!$E$22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <f aca="false">C13*types!$C$40+D13*types!$D$40+E13*types!$E$40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="F13">
+        <f>C13*types!$C$40+D13*types!$D$40+E13*types!$E$40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="1" t="n">
-        <f aca="false">(C14*types!$C$51+D14*types!$D$51+E14*types!$E$51)*IF(F15,F15,1)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14">
+        <f>(C14*types!$C$51+D14*types!$D$51+E14*types!$E$51)*IF(F15,F15,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9" t="n">
-        <f aca="false">C15*types!$C$53+D15*types!$D$53+E15*types!$E$53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7">
+        <f>C15*types!$C$53+D15*types!$D$53+E15*types!$E$53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="1" t="n">
-        <f aca="false">SUM(C16:E17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="F16">
+        <f>SUM(C16:E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11" t="n">
-        <f aca="false">SUM(C18:E18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9">
+        <f>SUM(C18:E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Internal to Wipro</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8340425531915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.57021276595745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.8127659574468"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="9.57021276595745"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="7.31914893617021"/>
+    <col min="1" max="1" width="12.85546875"/>
+    <col min="2" max="2" width="9.5703125"/>
+    <col min="3" max="3" width="13.85546875"/>
+    <col min="4" max="5" width="9.5703125"/>
+    <col min="6" max="1025" width="7.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="str">
-        <f aca="false">screen_2!A1</f>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>screen_2!A1</f>
         <v>Front End Estimation</v>
       </c>
-      <c r="D1" s="12" t="n">
-        <f aca="true">TODAY()</f>
+      <c r="D1" s="10">
+        <f ca="1">TODAY()</f>
         <v>45008</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="13" t="n">
-        <f aca="false">D1+7*B20</f>
-        <v>45026.4615384615</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="11">
+        <f ca="1">D1+7*B20</f>
+        <v>45008</v>
+      </c>
+      <c r="E2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <f aca="false">screen_2!G3</f>
+      <c r="B6" s="5">
+        <f>screen_2!G3</f>
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <f aca="false">screen_2!G1</f>
-        <v>90</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="14">
+        <f>screen_2!G1</f>
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <f aca="false">B7*B4</f>
-        <v>90</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="12">
+        <f>B7*B4</f>
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <f aca="false">B11-B10</f>
+      <c r="B12">
+        <f>B11-B10</f>
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="14" t="n">
-        <f aca="false">B8*B11/B9</f>
-        <v>72</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="12">
+        <f>B8*B11/B9</f>
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="14" t="n">
-        <f aca="false">B17/B12</f>
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="12">
+        <f>B17/B12</f>
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <f aca="false">B18/B13</f>
-        <v>2.4</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18">
+        <f>B18/B13</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="14" t="n">
-        <f aca="false">B14*((7*B18/B13)/52)+B18</f>
-        <v>18.4615384615385</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="12">
+        <f>B14*((7*B18/B13)/52)+B18</f>
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="14" t="n">
-        <f aca="false">B19/7</f>
-        <v>2.63736263736264</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="12">
+        <f>B19/7</f>
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Internal to Wipro</oddFooter>
   </headerFooter>
 </worksheet>
 </file>